--- a/data/output/FV2304_FV2210/UTILMD/11168.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11168.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16656" uniqueCount="854">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16677" uniqueCount="854">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2752,6 +2752,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U759" totalsRowShown="0">
+  <autoFilter ref="A1:U759"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3041,7 +3071,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U759"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -38205,5 +38238,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11168.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11168.xlsx
@@ -5433,7 +5433,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -7769,7 +7769,7 @@
         <v>768</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -8029,7 +8029,7 @@
         <v>769</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -8409,7 +8409,7 @@
         <v>771</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -8607,7 +8607,7 @@
         <v>774</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -8865,7 +8865,7 @@
         <v>775</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -9067,7 +9067,7 @@
         <v>775</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -9517,7 +9517,7 @@
         <v>777</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9805,7 +9805,7 @@
         <v>778</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -10163,7 +10163,7 @@
         <v>781</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -10787,7 +10787,7 @@
         <v>783</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -12019,7 +12019,7 @@
         <v>771</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -12455,7 +12455,7 @@
         <v>786</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -12661,7 +12661,7 @@
         <v>787</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -13111,7 +13111,7 @@
         <v>788</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -13249,7 +13249,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -13603,7 +13603,7 @@
         <v>790</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -13987,7 +13987,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -14487,7 +14487,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -14853,7 +14853,7 @@
         <v>793</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -15119,22 +15119,22 @@
       <c r="V198" s="5"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5" t="s">
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2" t="s">
         <v>694</v>
       </c>
       <c r="K199" s="6" t="s">
@@ -15143,19 +15143,19 @@
       <c r="L199" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5" t="s">
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2" t="s">
         <v>694</v>
       </c>
       <c r="V199" s="6" t="s">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -15635,7 +15635,7 @@
         <v>796</v>
       </c>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -16031,7 +16031,7 @@
         <v>797</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -16281,7 +16281,7 @@
         <v>799</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -16467,7 +16467,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -16967,7 +16967,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -17469,7 +17469,7 @@
         <v>800</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -17757,7 +17757,7 @@
         <v>801</v>
       </c>
       <c r="L252" s="4"/>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N252" s="2" t="s">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="4"/>
-      <c r="M255" s="2" t="s">
+      <c r="M255" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N255" s="2" t="s">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -18195,7 +18195,7 @@
         <v>802</v>
       </c>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -18439,7 +18439,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18575,7 +18575,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -18963,7 +18963,7 @@
         <v>804</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -19101,7 +19101,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -19251,7 +19251,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -19589,7 +19589,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -20021,7 +20021,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -20307,7 +20307,7 @@
         <v>806</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -20445,7 +20445,7 @@
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -20597,7 +20597,7 @@
         <v>771</v>
       </c>
       <c r="L311" s="4"/>
-      <c r="M311" s="2" t="s">
+      <c r="M311" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N311" s="2" t="s">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="K314" s="2"/>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20885,7 +20885,7 @@
         <v>771</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -21147,7 +21147,7 @@
         <v>771</v>
       </c>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -21297,7 +21297,7 @@
         <v>808</v>
       </c>
       <c r="L325" s="4"/>
-      <c r="M325" s="2" t="s">
+      <c r="M325" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N325" s="2" t="s">
@@ -21445,7 +21445,7 @@
         <v>771</v>
       </c>
       <c r="L328" s="4"/>
-      <c r="M328" s="2" t="s">
+      <c r="M328" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N328" s="2" t="s">
@@ -21841,7 +21841,7 @@
         <v>775</v>
       </c>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -22129,7 +22129,7 @@
         <v>771</v>
       </c>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -22379,7 +22379,7 @@
         <v>810</v>
       </c>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -22679,7 +22679,7 @@
         <v>811</v>
       </c>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -22817,7 +22817,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22969,7 +22969,7 @@
         <v>812</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -23121,7 +23121,7 @@
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="4"/>
-      <c r="M366" s="2" t="s">
+      <c r="M366" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N366" s="2" t="s">
@@ -23461,7 +23461,7 @@
       </c>
       <c r="K369" s="2"/>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23869,7 +23869,7 @@
         <v>814</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -24119,7 +24119,7 @@
         <v>815</v>
       </c>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24409,7 +24409,7 @@
         <v>816</v>
       </c>
       <c r="L388" s="4"/>
-      <c r="M388" s="2" t="s">
+      <c r="M388" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N388" s="2" t="s">
@@ -24555,7 +24555,7 @@
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -25715,7 +25715,7 @@
         <v>775</v>
       </c>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -26893,7 +26893,7 @@
       </c>
       <c r="K435" s="2"/>
       <c r="L435" s="4"/>
-      <c r="M435" s="2" t="s">
+      <c r="M435" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N435" s="2" t="s">
@@ -27041,7 +27041,7 @@
         <v>819</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -27249,7 +27249,7 @@
         <v>771</v>
       </c>
       <c r="L442" s="4"/>
-      <c r="M442" s="2" t="s">
+      <c r="M442" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N442" s="2" t="s">
@@ -27403,7 +27403,7 @@
         <v>771</v>
       </c>
       <c r="L445" s="4"/>
-      <c r="M445" s="2" t="s">
+      <c r="M445" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N445" s="2" t="s">
@@ -27611,7 +27611,7 @@
         <v>820</v>
       </c>
       <c r="L449" s="4"/>
-      <c r="M449" s="2" t="s">
+      <c r="M449" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N449" s="2" t="s">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="K452" s="2"/>
       <c r="L452" s="4"/>
-      <c r="M452" s="2" t="s">
+      <c r="M452" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N452" s="2" t="s">
@@ -28209,7 +28209,7 @@
         <v>821</v>
       </c>
       <c r="L461" s="4"/>
-      <c r="M461" s="2" t="s">
+      <c r="M461" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N461" s="2" t="s">
@@ -28497,7 +28497,7 @@
         <v>822</v>
       </c>
       <c r="L467" s="4"/>
-      <c r="M467" s="2" t="s">
+      <c r="M467" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N467" s="2" t="s">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="K470" s="2"/>
       <c r="L470" s="4"/>
-      <c r="M470" s="2" t="s">
+      <c r="M470" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N470" s="2" t="s">
@@ -28783,7 +28783,7 @@
       </c>
       <c r="K473" s="2"/>
       <c r="L473" s="4"/>
-      <c r="M473" s="2" t="s">
+      <c r="M473" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N473" s="2" t="s">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="K476" s="2"/>
       <c r="L476" s="4"/>
-      <c r="M476" s="2" t="s">
+      <c r="M476" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N476" s="2" t="s">
@@ -29067,7 +29067,7 @@
         <v>820</v>
       </c>
       <c r="L479" s="4"/>
-      <c r="M479" s="2" t="s">
+      <c r="M479" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N479" s="2" t="s">
@@ -29219,7 +29219,7 @@
         <v>822</v>
       </c>
       <c r="L482" s="4"/>
-      <c r="M482" s="2" t="s">
+      <c r="M482" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N482" s="2" t="s">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="K485" s="2"/>
       <c r="L485" s="4"/>
-      <c r="M485" s="2" t="s">
+      <c r="M485" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N485" s="2" t="s">
@@ -29501,7 +29501,7 @@
       </c>
       <c r="K488" s="2"/>
       <c r="L488" s="4"/>
-      <c r="M488" s="2" t="s">
+      <c r="M488" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N488" s="2" t="s">
@@ -29637,7 +29637,7 @@
       </c>
       <c r="K491" s="2"/>
       <c r="L491" s="4"/>
-      <c r="M491" s="2" t="s">
+      <c r="M491" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N491" s="2" t="s">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="K494" s="2"/>
       <c r="L494" s="4"/>
-      <c r="M494" s="2" t="s">
+      <c r="M494" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N494" s="2" t="s">
@@ -29989,7 +29989,7 @@
         <v>823</v>
       </c>
       <c r="L498" s="4"/>
-      <c r="M498" s="2" t="s">
+      <c r="M498" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N498" s="2" t="s">
@@ -30195,7 +30195,7 @@
         <v>824</v>
       </c>
       <c r="L502" s="4"/>
-      <c r="M502" s="2" t="s">
+      <c r="M502" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N502" s="2" t="s">
@@ -30311,24 +30311,24 @@
       <c r="V504" s="5"/>
     </row>
     <row r="505" spans="1:22">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="B505" s="5" t="s">
+      <c r="B505" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C505" s="5" t="s">
+      <c r="C505" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D505" s="5" t="s">
+      <c r="D505" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E505" s="5"/>
-      <c r="F505" s="5"/>
-      <c r="G505" s="5"/>
-      <c r="H505" s="5"/>
-      <c r="I505" s="5"/>
-      <c r="J505" s="5" t="s">
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2" t="s">
         <v>739</v>
       </c>
       <c r="K505" s="6" t="s">
@@ -30337,21 +30337,21 @@
       <c r="L505" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="M505" s="5" t="s">
+      <c r="M505" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N505" s="5" t="s">
+      <c r="N505" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O505" s="5" t="s">
+      <c r="O505" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="P505" s="5"/>
-      <c r="Q505" s="5"/>
-      <c r="R505" s="5"/>
-      <c r="S505" s="5"/>
-      <c r="T505" s="5"/>
-      <c r="U505" s="5" t="s">
+      <c r="P505" s="2"/>
+      <c r="Q505" s="2"/>
+      <c r="R505" s="2"/>
+      <c r="S505" s="2"/>
+      <c r="T505" s="2"/>
+      <c r="U505" s="2" t="s">
         <v>739</v>
       </c>
       <c r="V505" s="6" t="s">
@@ -30599,7 +30599,7 @@
         <v>815</v>
       </c>
       <c r="L510" s="4"/>
-      <c r="M510" s="2" t="s">
+      <c r="M510" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N510" s="2" t="s">
@@ -30753,7 +30753,7 @@
         <v>827</v>
       </c>
       <c r="L513" s="4"/>
-      <c r="M513" s="2" t="s">
+      <c r="M513" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N513" s="2" t="s">
@@ -30907,7 +30907,7 @@
         <v>828</v>
       </c>
       <c r="L516" s="4"/>
-      <c r="M516" s="2" t="s">
+      <c r="M516" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N516" s="2" t="s">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="K519" s="2"/>
       <c r="L519" s="4"/>
-      <c r="M519" s="2" t="s">
+      <c r="M519" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N519" s="2" t="s">
@@ -31259,7 +31259,7 @@
         <v>830</v>
       </c>
       <c r="L523" s="4"/>
-      <c r="M523" s="2" t="s">
+      <c r="M523" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N523" s="2" t="s">
@@ -31655,7 +31655,7 @@
         <v>831</v>
       </c>
       <c r="L531" s="4"/>
-      <c r="M531" s="2" t="s">
+      <c r="M531" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N531" s="2" t="s">
@@ -31989,7 +31989,7 @@
         <v>832</v>
       </c>
       <c r="L538" s="4"/>
-      <c r="M538" s="2" t="s">
+      <c r="M538" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N538" s="2" t="s">
@@ -32177,7 +32177,7 @@
         <v>833</v>
       </c>
       <c r="L542" s="4"/>
-      <c r="M542" s="2" t="s">
+      <c r="M542" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N542" s="2" t="s">
@@ -32423,7 +32423,7 @@
         <v>834</v>
       </c>
       <c r="L547" s="4"/>
-      <c r="M547" s="2" t="s">
+      <c r="M547" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N547" s="2" t="s">
@@ -32561,7 +32561,7 @@
       </c>
       <c r="K550" s="2"/>
       <c r="L550" s="4"/>
-      <c r="M550" s="2" t="s">
+      <c r="M550" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N550" s="2" t="s">
@@ -32705,7 +32705,7 @@
       </c>
       <c r="K553" s="2"/>
       <c r="L553" s="4"/>
-      <c r="M553" s="2" t="s">
+      <c r="M553" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N553" s="2" t="s">
@@ -32843,7 +32843,7 @@
         <v>835</v>
       </c>
       <c r="L556" s="4"/>
-      <c r="M556" s="2" t="s">
+      <c r="M556" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N556" s="2" t="s">
@@ -32991,7 +32991,7 @@
       </c>
       <c r="K559" s="2"/>
       <c r="L559" s="4"/>
-      <c r="M559" s="2" t="s">
+      <c r="M559" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N559" s="2" t="s">
@@ -33303,7 +33303,7 @@
         <v>837</v>
       </c>
       <c r="L565" s="4"/>
-      <c r="M565" s="2" t="s">
+      <c r="M565" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N565" s="2" t="s">
@@ -33441,7 +33441,7 @@
       </c>
       <c r="K568" s="2"/>
       <c r="L568" s="4"/>
-      <c r="M568" s="2" t="s">
+      <c r="M568" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N568" s="2" t="s">
@@ -33585,7 +33585,7 @@
       </c>
       <c r="K571" s="2"/>
       <c r="L571" s="4"/>
-      <c r="M571" s="2" t="s">
+      <c r="M571" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N571" s="2" t="s">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="K574" s="2"/>
       <c r="L574" s="4"/>
-      <c r="M574" s="2" t="s">
+      <c r="M574" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N574" s="2" t="s">
@@ -33867,7 +33867,7 @@
       </c>
       <c r="K577" s="2"/>
       <c r="L577" s="4"/>
-      <c r="M577" s="2" t="s">
+      <c r="M577" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N577" s="2" t="s">
@@ -34233,7 +34233,7 @@
         <v>838</v>
       </c>
       <c r="L584" s="4"/>
-      <c r="M584" s="2" t="s">
+      <c r="M584" s="3" t="s">
         <v>122</v>
       </c>
       <c r="N584" s="2" t="s">
@@ -34371,7 +34371,7 @@
       </c>
       <c r="K587" s="2"/>
       <c r="L587" s="4"/>
-      <c r="M587" s="2" t="s">
+      <c r="M587" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N587" s="2" t="s">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K590" s="2"/>
       <c r="L590" s="4"/>
-      <c r="M590" s="2" t="s">
+      <c r="M590" s="3" t="s">
         <v>123</v>
       </c>
       <c r="N590" s="2" t="s">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="K593" s="2"/>
       <c r="L593" s="4"/>
-      <c r="M593" s="2" t="s">
+      <c r="M593" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N593" s="2" t="s">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="K596" s="2"/>
       <c r="L596" s="4"/>
-      <c r="M596" s="2" t="s">
+      <c r="M596" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N596" s="2" t="s">
@@ -34947,7 +34947,7 @@
         <v>838</v>
       </c>
       <c r="L599" s="4"/>
-      <c r="M599" s="2" t="s">
+      <c r="M599" s="3" t="s">
         <v>125</v>
       </c>
       <c r="N599" s="2" t="s">
@@ -35219,7 +35219,7 @@
       </c>
       <c r="K605" s="2"/>
       <c r="L605" s="4"/>
-      <c r="M605" s="2" t="s">
+      <c r="M605" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N605" s="2" t="s">
@@ -35369,7 +35369,7 @@
         <v>840</v>
       </c>
       <c r="L608" s="4"/>
-      <c r="M608" s="2" t="s">
+      <c r="M608" s="3" t="s">
         <v>126</v>
       </c>
       <c r="N608" s="2" t="s">
@@ -35507,7 +35507,7 @@
       </c>
       <c r="K611" s="2"/>
       <c r="L611" s="4"/>
-      <c r="M611" s="2" t="s">
+      <c r="M611" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N611" s="2" t="s">
@@ -35653,7 +35653,7 @@
       </c>
       <c r="K614" s="2"/>
       <c r="L614" s="4"/>
-      <c r="M614" s="2" t="s">
+      <c r="M614" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N614" s="2" t="s">
@@ -35801,7 +35801,7 @@
       </c>
       <c r="K617" s="2"/>
       <c r="L617" s="4"/>
-      <c r="M617" s="2" t="s">
+      <c r="M617" s="3" t="s">
         <v>127</v>
       </c>
       <c r="N617" s="2" t="s">
@@ -35937,7 +35937,7 @@
       </c>
       <c r="K620" s="2"/>
       <c r="L620" s="4"/>
-      <c r="M620" s="2" t="s">
+      <c r="M620" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N620" s="2" t="s">
@@ -36087,7 +36087,7 @@
         <v>841</v>
       </c>
       <c r="L623" s="4"/>
-      <c r="M623" s="2" t="s">
+      <c r="M623" s="3" t="s">
         <v>128</v>
       </c>
       <c r="N623" s="2" t="s">
@@ -36225,7 +36225,7 @@
       </c>
       <c r="K626" s="2"/>
       <c r="L626" s="4"/>
-      <c r="M626" s="2" t="s">
+      <c r="M626" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N626" s="2" t="s">
@@ -36373,7 +36373,7 @@
       </c>
       <c r="K629" s="2"/>
       <c r="L629" s="4"/>
-      <c r="M629" s="2" t="s">
+      <c r="M629" s="3" t="s">
         <v>129</v>
       </c>
       <c r="N629" s="2" t="s">
@@ -36763,7 +36763,7 @@
         <v>842</v>
       </c>
       <c r="L637" s="4"/>
-      <c r="M637" s="2" t="s">
+      <c r="M637" s="3" t="s">
         <v>130</v>
       </c>
       <c r="N637" s="2" t="s">
@@ -36901,7 +36901,7 @@
       </c>
       <c r="K640" s="2"/>
       <c r="L640" s="4"/>
-      <c r="M640" s="2" t="s">
+      <c r="M640" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N640" s="2" t="s">
@@ -37049,7 +37049,7 @@
       </c>
       <c r="K643" s="2"/>
       <c r="L643" s="4"/>
-      <c r="M643" s="2" t="s">
+      <c r="M643" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N643" s="2" t="s">
@@ -37437,7 +37437,7 @@
       </c>
       <c r="K651" s="2"/>
       <c r="L651" s="4"/>
-      <c r="M651" s="2" t="s">
+      <c r="M651" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N651" s="2" t="s">
@@ -37839,7 +37839,7 @@
         <v>844</v>
       </c>
       <c r="L659" s="4"/>
-      <c r="M659" s="2" t="s">
+      <c r="M659" s="3" t="s">
         <v>133</v>
       </c>
       <c r="N659" s="2" t="s">
@@ -37977,7 +37977,7 @@
       </c>
       <c r="K662" s="2"/>
       <c r="L662" s="4"/>
-      <c r="M662" s="2" t="s">
+      <c r="M662" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N662" s="2" t="s">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="K665" s="2"/>
       <c r="L665" s="4"/>
-      <c r="M665" s="2" t="s">
+      <c r="M665" s="3" t="s">
         <v>134</v>
       </c>
       <c r="N665" s="2" t="s">
@@ -38353,7 +38353,7 @@
         <v>845</v>
       </c>
       <c r="L670" s="4"/>
-      <c r="M670" s="2" t="s">
+      <c r="M670" s="3" t="s">
         <v>135</v>
       </c>
       <c r="N670" s="2" t="s">
@@ -38649,7 +38649,7 @@
       </c>
       <c r="K676" s="2"/>
       <c r="L676" s="4"/>
-      <c r="M676" s="2" t="s">
+      <c r="M676" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N676" s="2" t="s">
@@ -38799,7 +38799,7 @@
         <v>845</v>
       </c>
       <c r="L679" s="4"/>
-      <c r="M679" s="2" t="s">
+      <c r="M679" s="3" t="s">
         <v>136</v>
       </c>
       <c r="N679" s="2" t="s">
@@ -39299,7 +39299,7 @@
       </c>
       <c r="K689" s="2"/>
       <c r="L689" s="4"/>
-      <c r="M689" s="2" t="s">
+      <c r="M689" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N689" s="2" t="s">
@@ -39449,7 +39449,7 @@
         <v>847</v>
       </c>
       <c r="L692" s="4"/>
-      <c r="M692" s="2" t="s">
+      <c r="M692" s="3" t="s">
         <v>137</v>
       </c>
       <c r="N692" s="2" t="s">
@@ -39745,7 +39745,7 @@
       </c>
       <c r="K698" s="2"/>
       <c r="L698" s="4"/>
-      <c r="M698" s="2" t="s">
+      <c r="M698" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N698" s="2" t="s">
@@ -39895,7 +39895,7 @@
         <v>847</v>
       </c>
       <c r="L701" s="4"/>
-      <c r="M701" s="2" t="s">
+      <c r="M701" s="3" t="s">
         <v>138</v>
       </c>
       <c r="N701" s="2" t="s">
@@ -40393,7 +40393,7 @@
       </c>
       <c r="K711" s="2"/>
       <c r="L711" s="4"/>
-      <c r="M711" s="2" t="s">
+      <c r="M711" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N711" s="2" t="s">
@@ -40687,7 +40687,7 @@
       </c>
       <c r="K717" s="2"/>
       <c r="L717" s="4"/>
-      <c r="M717" s="2" t="s">
+      <c r="M717" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N717" s="2" t="s">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K720" s="2"/>
       <c r="L720" s="4"/>
-      <c r="M720" s="2" t="s">
+      <c r="M720" s="3" t="s">
         <v>140</v>
       </c>
       <c r="N720" s="2" t="s">
@@ -41333,7 +41333,7 @@
       </c>
       <c r="K730" s="2"/>
       <c r="L730" s="4"/>
-      <c r="M730" s="2" t="s">
+      <c r="M730" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N730" s="2" t="s">
@@ -41483,7 +41483,7 @@
         <v>848</v>
       </c>
       <c r="L733" s="4"/>
-      <c r="M733" s="2" t="s">
+      <c r="M733" s="3" t="s">
         <v>141</v>
       </c>
       <c r="N733" s="2" t="s">
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K741" s="2"/>
       <c r="L741" s="4"/>
-      <c r="M741" s="2" t="s">
+      <c r="M741" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N741" s="2" t="s">
@@ -42025,7 +42025,7 @@
         <v>850</v>
       </c>
       <c r="L744" s="4"/>
-      <c r="M744" s="2" t="s">
+      <c r="M744" s="3" t="s">
         <v>142</v>
       </c>
       <c r="N744" s="2" t="s">
@@ -42525,7 +42525,7 @@
       </c>
       <c r="K754" s="2"/>
       <c r="L754" s="4"/>
-      <c r="M754" s="2" t="s">
+      <c r="M754" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N754" s="2" t="s">
@@ -42673,7 +42673,7 @@
       </c>
       <c r="K757" s="2"/>
       <c r="L757" s="4"/>
-      <c r="M757" s="2" t="s">
+      <c r="M757" s="3" t="s">
         <v>143</v>
       </c>
       <c r="N757" s="2"/>
